--- a/public/DataEmployee/custom_employee_template (4).xlsx
+++ b/public/DataEmployee/custom_employee_template (4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179BB329-5B3E-46CB-B951-259D2CE1D8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7F1D2-5162-4E48-AED7-B2B0AF99F8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -48,25 +48,46 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Pangkat</t>
   </si>
   <si>
-    <t>hai</t>
-  </si>
-  <si>
-    <t>Sosial</t>
-  </si>
-  <si>
-    <t>hai@bps.go.id</t>
-  </si>
-  <si>
-    <t>sekretaris</t>
+    <t>Mutia Budi Utami</t>
+  </si>
+  <si>
+    <t>Ananda Zakia Syahfitri</t>
+  </si>
+  <si>
+    <t>IPDS</t>
+  </si>
+  <si>
+    <t>Produksi</t>
+  </si>
+  <si>
+    <t>E31210529</t>
+  </si>
+  <si>
+    <t>mutia@bps.go.id</t>
+  </si>
+  <si>
+    <t>zakia@bps.go.id</t>
+  </si>
+  <si>
+    <t>Anggota</t>
+  </si>
+  <si>
+    <t>Mario Windu</t>
+  </si>
+  <si>
+    <t>Distribusi</t>
+  </si>
+  <si>
+    <t>E12345678</t>
+  </si>
+  <si>
+    <t>E31210521</t>
+  </si>
+  <si>
+    <t>mario@bps.go.id</t>
   </si>
 </sst>
 </file>
@@ -415,15 +436,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,42 +468,72 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>12345</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{268D800A-0713-47DD-BF38-383A4BED9603}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{93336168-7F29-4CAE-893D-7DC5A2C33EAD}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{A8DD400F-B815-41B9-BE17-33F92CD88EFF}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{EA9DCA79-2E12-478F-9A0F-63405D0E2E7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
